--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1363906666666667</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N2">
-        <v>0.409172</v>
+        <v>0.120715</v>
       </c>
       <c r="O2">
-        <v>0.006421450140662059</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P2">
-        <v>0.006461395109718823</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q2">
-        <v>2.095688466060889</v>
+        <v>0.5283930139483334</v>
       </c>
       <c r="R2">
-        <v>18.861196194548</v>
+        <v>4.755537125535001</v>
       </c>
       <c r="S2">
-        <v>3.793093637700345E-05</v>
+        <v>9.972264456785469E-06</v>
       </c>
       <c r="T2">
-        <v>3.848673770312847E-05</v>
+        <v>1.000144406984496E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.66750966666666</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N3">
         <v>62.002529</v>
       </c>
       <c r="O3">
-        <v>0.9730532601655376</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P3">
-        <v>0.9791061892573283</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q3">
-        <v>317.5632372007512</v>
+        <v>271.3971185911357</v>
       </c>
       <c r="R3">
-        <v>2858.069134806761</v>
+        <v>2442.574067320221</v>
       </c>
       <c r="S3">
-        <v>0.005747739294752112</v>
+        <v>0.00512202805100866</v>
       </c>
       <c r="T3">
-        <v>0.005831960814898421</v>
+        <v>0.00513701549917111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02296733333333334</v>
+        <v>0.022458</v>
       </c>
       <c r="N4">
-        <v>0.068902</v>
+        <v>0.067374</v>
       </c>
       <c r="O4">
-        <v>0.001081331952313201</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P4">
-        <v>0.001088058434716565</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q4">
-        <v>0.3529008013464445</v>
+        <v>0.294909091014</v>
       </c>
       <c r="R4">
-        <v>3.176107212118001</v>
+        <v>2.654181819126</v>
       </c>
       <c r="S4">
-        <v>6.387331924589885E-06</v>
+        <v>5.565765194975473E-06</v>
       </c>
       <c r="T4">
-        <v>6.480925383997337E-06</v>
+        <v>5.582051052161991E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>2518.056722</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>7554.170166</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3939205</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N5">
-        <v>0.787841</v>
+        <v>0.120715</v>
       </c>
       <c r="O5">
-        <v>0.01854628994751353</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P5">
-        <v>0.01244110541443693</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q5">
-        <v>6.052720971094834</v>
+        <v>101.3224057320767</v>
       </c>
       <c r="R5">
-        <v>36.316325826569</v>
+        <v>911.90165158869</v>
       </c>
       <c r="S5">
-        <v>0.0001095512896026418</v>
+        <v>0.001912239183118313</v>
       </c>
       <c r="T5">
-        <v>7.410436178128132E-05</v>
+        <v>0.001917834542094441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>2518.056722</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>7554.170166</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01906633333333333</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N6">
-        <v>0.057199</v>
+        <v>62.002529</v>
       </c>
       <c r="O6">
-        <v>0.0008976677939735102</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P6">
-        <v>0.000903251783799495</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q6">
-        <v>0.2929606243101111</v>
+        <v>52041.96164314997</v>
       </c>
       <c r="R6">
-        <v>2.636645618791</v>
+        <v>468377.6547883498</v>
       </c>
       <c r="S6">
-        <v>5.30244403289624E-06</v>
+        <v>0.982178398759305</v>
       </c>
       <c r="T6">
-        <v>5.380140649607611E-06</v>
+        <v>0.9850523283221828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1363906666666667</v>
+        <v>0.022458</v>
       </c>
       <c r="N7">
-        <v>0.409172</v>
+        <v>0.067374</v>
       </c>
       <c r="O7">
-        <v>0.006421450140662059</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P7">
-        <v>0.006461395109718823</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q7">
-        <v>343.4394350180613</v>
+        <v>56.550517862676</v>
       </c>
       <c r="R7">
-        <v>3090.954915162552</v>
+        <v>508.954660764084</v>
       </c>
       <c r="S7">
-        <v>0.006216085820956942</v>
+        <v>0.001067267553522041</v>
       </c>
       <c r="T7">
-        <v>0.006307170014298645</v>
+        <v>0.001070390460498454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2518.056722</v>
+        <v>1.21459</v>
       </c>
       <c r="H8">
-        <v>7554.170166</v>
+        <v>3.64377</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>20.66750966666666</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N8">
-        <v>62.002529</v>
+        <v>0.120715</v>
       </c>
       <c r="O8">
-        <v>0.9730532601655376</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P8">
-        <v>0.9791061892573283</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q8">
-        <v>52041.96164314997</v>
+        <v>0.04887307728333334</v>
       </c>
       <c r="R8">
-        <v>468377.6547883498</v>
+        <v>0.43985769555</v>
       </c>
       <c r="S8">
-        <v>0.9419340555570067</v>
+        <v>9.223726253390061E-07</v>
       </c>
       <c r="T8">
-        <v>0.955736198272321</v>
+        <v>9.250715586074425E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2518.056722</v>
+        <v>1.21459</v>
       </c>
       <c r="H9">
-        <v>7554.170166</v>
+        <v>3.64377</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02296733333333334</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N9">
-        <v>0.068902</v>
+        <v>62.002529</v>
       </c>
       <c r="O9">
-        <v>0.001081331952313201</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P9">
-        <v>0.001088058434716565</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q9">
-        <v>57.83304808641467</v>
+        <v>25.10255056603667</v>
       </c>
       <c r="R9">
-        <v>520.497432777732</v>
+        <v>225.92295509433</v>
       </c>
       <c r="S9">
-        <v>0.001046749888153577</v>
+        <v>0.0004737558335864463</v>
       </c>
       <c r="T9">
-        <v>0.00106208789537213</v>
+        <v>0.0004751420796059575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2518.056722</v>
+        <v>1.21459</v>
       </c>
       <c r="H10">
-        <v>7554.170166</v>
+        <v>3.64377</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3939205</v>
+        <v>0.022458</v>
       </c>
       <c r="N10">
-        <v>0.787841</v>
+        <v>0.067374</v>
       </c>
       <c r="O10">
-        <v>0.01854628994751353</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P10">
-        <v>0.01244110541443693</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q10">
-        <v>991.914162958601</v>
+        <v>0.02727726222</v>
       </c>
       <c r="R10">
-        <v>5951.484977751606</v>
+        <v>0.24549535998</v>
       </c>
       <c r="S10">
-        <v>0.01795316127179477</v>
+        <v>5.147987678382157E-07</v>
       </c>
       <c r="T10">
-        <v>0.01214415241325178</v>
+        <v>5.163051086411617E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2518.056722</v>
+        <v>22.3716355</v>
       </c>
       <c r="H11">
-        <v>7554.170166</v>
+        <v>44.743271</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01906633333333333</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N11">
-        <v>0.057199</v>
+        <v>0.120715</v>
       </c>
       <c r="O11">
-        <v>0.0008976677939735102</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P11">
-        <v>0.000903251783799495</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q11">
-        <v>48.01010881389266</v>
+        <v>0.9001973264608334</v>
       </c>
       <c r="R11">
-        <v>432.090979325034</v>
+        <v>5.401183958765</v>
       </c>
       <c r="S11">
-        <v>0.0008689594910524575</v>
+        <v>1.698925906623824E-05</v>
       </c>
       <c r="T11">
-        <v>0.0008816923387911885</v>
+        <v>1.135931396360505E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>22.3716355</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>44.743271</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1363906666666667</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N12">
-        <v>0.409172</v>
+        <v>62.002529</v>
       </c>
       <c r="O12">
-        <v>0.006421450140662059</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P12">
-        <v>0.006461395109718823</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q12">
-        <v>0.2074666163435556</v>
+        <v>462.3659929553932</v>
       </c>
       <c r="R12">
-        <v>1.867199547092</v>
+        <v>2774.195957732359</v>
       </c>
       <c r="S12">
-        <v>3.755044298006339E-06</v>
+        <v>0.008726148597464685</v>
       </c>
       <c r="T12">
-        <v>3.810066894331049E-06</v>
+        <v>0.005834454653096361</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>22.3716355</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>44.743271</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>20.66750966666666</v>
+        <v>0.022458</v>
       </c>
       <c r="N13">
-        <v>62.002529</v>
+        <v>0.067374</v>
       </c>
       <c r="O13">
-        <v>0.9730532601655376</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P13">
-        <v>0.9791061892573283</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q13">
-        <v>31.43776919332988</v>
+        <v>0.502422190059</v>
       </c>
       <c r="R13">
-        <v>282.939922739969</v>
+        <v>3.014533140354</v>
       </c>
       <c r="S13">
-        <v>0.0005690082483244764</v>
+        <v>9.482121859990352E-06</v>
       </c>
       <c r="T13">
-        <v>0.0005773459159172689</v>
+        <v>6.339911518733602E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.655444</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02296733333333334</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N14">
-        <v>0.068902</v>
+        <v>0.120715</v>
       </c>
       <c r="O14">
-        <v>0.001081331952313201</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P14">
-        <v>0.001088058434716565</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q14">
-        <v>0.03493607773577778</v>
+        <v>0.04902965805111111</v>
       </c>
       <c r="R14">
-        <v>0.314424699622</v>
+        <v>0.44126692246</v>
       </c>
       <c r="S14">
-        <v>6.32325922157999E-07</v>
+        <v>9.25327745455865E-07</v>
       </c>
       <c r="T14">
-        <v>6.415913824826672E-07</v>
+        <v>9.280353256331282E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.655444</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3939205</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N15">
-        <v>0.787841</v>
+        <v>62.002529</v>
       </c>
       <c r="O15">
-        <v>0.01854628994751353</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P15">
-        <v>0.01244110541443693</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q15">
-        <v>0.5992004822668334</v>
+        <v>25.18297473531955</v>
       </c>
       <c r="R15">
-        <v>3.595202893601</v>
+        <v>226.646772617876</v>
       </c>
       <c r="S15">
-        <v>1.08452357008261E-05</v>
+        <v>0.0004752736641853282</v>
       </c>
       <c r="T15">
-        <v>7.336100495871339E-06</v>
+        <v>0.0004766643514939526</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.521120333333333</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H16">
-        <v>4.563361</v>
+        <v>3.655444</v>
       </c>
       <c r="I16">
-        <v>0.000584765779652879</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J16">
-        <v>0.0005896662918198867</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,648 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01906633333333333</v>
+        <v>0.022458</v>
       </c>
       <c r="N16">
-        <v>0.057199</v>
+        <v>0.067374</v>
       </c>
       <c r="O16">
-        <v>0.0008976677939735102</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P16">
-        <v>0.000903251783799495</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q16">
-        <v>0.02900218731544445</v>
+        <v>0.027364653784</v>
       </c>
       <c r="R16">
-        <v>0.261019685839</v>
+        <v>0.246281884056</v>
       </c>
       <c r="S16">
-        <v>5.249254074121997E-07</v>
+        <v>5.164480927999292E-07</v>
       </c>
       <c r="T16">
-        <v>5.326171299327462E-07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>64.85419099999999</v>
-      </c>
-      <c r="H17">
-        <v>129.708382</v>
-      </c>
-      <c r="I17">
-        <v>0.02493196016962392</v>
-      </c>
-      <c r="J17">
-        <v>0.01676059830285119</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1363906666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.409172</v>
-      </c>
-      <c r="O17">
-        <v>0.006421450140662059</v>
-      </c>
-      <c r="P17">
-        <v>0.006461395109718823</v>
-      </c>
-      <c r="Q17">
-        <v>8.845506346617331</v>
-      </c>
-      <c r="R17">
-        <v>53.07303807970398</v>
-      </c>
-      <c r="S17">
-        <v>0.0001600993391382123</v>
-      </c>
-      <c r="T17">
-        <v>0.0001082968479100043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>64.85419099999999</v>
-      </c>
-      <c r="H18">
-        <v>129.708382</v>
-      </c>
-      <c r="I18">
-        <v>0.02493196016962392</v>
-      </c>
-      <c r="J18">
-        <v>0.01676059830285119</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>20.66750966666666</v>
-      </c>
-      <c r="N18">
-        <v>62.002529</v>
-      </c>
-      <c r="O18">
-        <v>0.9730532601655376</v>
-      </c>
-      <c r="P18">
-        <v>0.9791061892573283</v>
-      </c>
-      <c r="Q18">
-        <v>1340.374619416346</v>
-      </c>
-      <c r="R18">
-        <v>8042.247716498076</v>
-      </c>
-      <c r="S18">
-        <v>0.02426012512536988</v>
-      </c>
-      <c r="T18">
-        <v>0.01641040553397747</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>64.85419099999999</v>
-      </c>
-      <c r="H19">
-        <v>129.708382</v>
-      </c>
-      <c r="I19">
-        <v>0.02493196016962392</v>
-      </c>
-      <c r="J19">
-        <v>0.01676059830285119</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.02296733333333334</v>
-      </c>
-      <c r="N19">
-        <v>0.068902</v>
-      </c>
-      <c r="O19">
-        <v>0.001081331952313201</v>
-      </c>
-      <c r="P19">
-        <v>0.001088058434716565</v>
-      </c>
-      <c r="Q19">
-        <v>1.489527822760667</v>
-      </c>
-      <c r="R19">
-        <v>8.937166936563999</v>
-      </c>
-      <c r="S19">
-        <v>2.69597251652144E-05</v>
-      </c>
-      <c r="T19">
-        <v>1.823651035431338E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>64.85419099999999</v>
-      </c>
-      <c r="H20">
-        <v>129.708382</v>
-      </c>
-      <c r="I20">
-        <v>0.02493196016962392</v>
-      </c>
-      <c r="J20">
-        <v>0.01676059830285119</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.3939205</v>
-      </c>
-      <c r="N20">
-        <v>0.787841</v>
-      </c>
-      <c r="O20">
-        <v>0.01854628994751353</v>
-      </c>
-      <c r="P20">
-        <v>0.01244110541443693</v>
-      </c>
-      <c r="Q20">
-        <v>25.5473953458155</v>
-      </c>
-      <c r="R20">
-        <v>102.189581383262</v>
-      </c>
-      <c r="S20">
-        <v>0.0004623953622657038</v>
-      </c>
-      <c r="T20">
-        <v>0.0002085203702948044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>64.85419099999999</v>
-      </c>
-      <c r="H21">
-        <v>129.708382</v>
-      </c>
-      <c r="I21">
-        <v>0.02493196016962392</v>
-      </c>
-      <c r="J21">
-        <v>0.01676059830285119</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.01906633333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.057199</v>
-      </c>
-      <c r="O21">
-        <v>0.0008976677939735102</v>
-      </c>
-      <c r="P21">
-        <v>0.000903251783799495</v>
-      </c>
-      <c r="Q21">
-        <v>1.236531623669666</v>
-      </c>
-      <c r="R21">
-        <v>7.419189742017998</v>
-      </c>
-      <c r="S21">
-        <v>2.238061768490172E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.513904031459713E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>1.449807</v>
-      </c>
-      <c r="H22">
-        <v>4.349421</v>
-      </c>
-      <c r="I22">
-        <v>0.00055735072506944</v>
-      </c>
-      <c r="J22">
-        <v>0.0005620214908777858</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1363906666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.409172</v>
-      </c>
-      <c r="O22">
-        <v>0.006421450140662059</v>
-      </c>
-      <c r="P22">
-        <v>0.006461395109718823</v>
-      </c>
-      <c r="Q22">
-        <v>0.197740143268</v>
-      </c>
-      <c r="R22">
-        <v>1.779661289412</v>
-      </c>
-      <c r="S22">
-        <v>3.578999891895256E-06</v>
-      </c>
-      <c r="T22">
-        <v>3.631442912714607E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>1.449807</v>
-      </c>
-      <c r="H23">
-        <v>4.349421</v>
-      </c>
-      <c r="I23">
-        <v>0.00055735072506944</v>
-      </c>
-      <c r="J23">
-        <v>0.0005620214908777858</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>20.66750966666666</v>
-      </c>
-      <c r="N23">
-        <v>62.002529</v>
-      </c>
-      <c r="O23">
-        <v>0.9730532601655376</v>
-      </c>
-      <c r="P23">
-        <v>0.9791061892573283</v>
-      </c>
-      <c r="Q23">
-        <v>29.963900187301</v>
-      </c>
-      <c r="R23">
-        <v>269.675101685709</v>
-      </c>
-      <c r="S23">
-        <v>0.0005423319400844448</v>
-      </c>
-      <c r="T23">
-        <v>0.0005502787202140712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>1.449807</v>
-      </c>
-      <c r="H24">
-        <v>4.349421</v>
-      </c>
-      <c r="I24">
-        <v>0.00055735072506944</v>
-      </c>
-      <c r="J24">
-        <v>0.0005620214908777858</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02296733333333334</v>
-      </c>
-      <c r="N24">
-        <v>0.068902</v>
-      </c>
-      <c r="O24">
-        <v>0.001081331952313201</v>
-      </c>
-      <c r="P24">
-        <v>0.001088058434716565</v>
-      </c>
-      <c r="Q24">
-        <v>0.03329820063800001</v>
-      </c>
-      <c r="R24">
-        <v>0.299683805742</v>
-      </c>
-      <c r="S24">
-        <v>6.026811476625159E-07</v>
-      </c>
-      <c r="T24">
-        <v>6.115122236415538E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>1.449807</v>
-      </c>
-      <c r="H25">
-        <v>4.349421</v>
-      </c>
-      <c r="I25">
-        <v>0.00055735072506944</v>
-      </c>
-      <c r="J25">
-        <v>0.0005620214908777858</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.3939205</v>
-      </c>
-      <c r="N25">
-        <v>0.787841</v>
-      </c>
-      <c r="O25">
-        <v>0.01854628994751353</v>
-      </c>
-      <c r="P25">
-        <v>0.01244110541443693</v>
-      </c>
-      <c r="Q25">
-        <v>0.5711086983435001</v>
-      </c>
-      <c r="R25">
-        <v>3.426652190061001</v>
-      </c>
-      <c r="S25">
-        <v>1.033678814959473E-05</v>
-      </c>
-      <c r="T25">
-        <v>6.992168613189536E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>1.449807</v>
-      </c>
-      <c r="H26">
-        <v>4.349421</v>
-      </c>
-      <c r="I26">
-        <v>0.00055735072506944</v>
-      </c>
-      <c r="J26">
-        <v>0.0005620214908777858</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.01906633333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.057199</v>
-      </c>
-      <c r="O26">
-        <v>0.0008976677939735102</v>
-      </c>
-      <c r="P26">
-        <v>0.000903251783799495</v>
-      </c>
-      <c r="Q26">
-        <v>0.027642503531</v>
-      </c>
-      <c r="R26">
-        <v>0.248782531779</v>
-      </c>
-      <c r="S26">
-        <v>5.003157958426206E-07</v>
-      </c>
-      <c r="T26">
-        <v>5.076469141690116E-07</v>
+        <v>5.179592596546112E-07</v>
       </c>
     </row>
   </sheetData>
